--- a/report/ml_perform_normal_samp_2022-11-24.xlsx
+++ b/report/ml_perform_normal_samp_2022-11-24.xlsx
@@ -450,13 +450,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>0.05236417490646417</v>
+        <v>0.06350225186776255</v>
       </c>
       <c r="B2">
-        <v>0.007298834269025209</v>
+        <v>0.01020544126498935</v>
       </c>
       <c r="C2">
-        <v>0.9492724042225804</v>
+        <v>0.926455949071314</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -465,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>7496</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0.1262291985179908</v>
+        <v>0.1291609959733431</v>
       </c>
       <c r="B3">
-        <v>0.02338414815392481</v>
+        <v>0.02639189233356748</v>
       </c>
       <c r="C3">
-        <v>0.834016083054071</v>
+        <v>0.798468071671816</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -491,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>7496</v>
@@ -502,13 +502,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>0.1677300256835992</v>
+        <v>0.159679051606172</v>
       </c>
       <c r="B4">
-        <v>0.04124388800117447</v>
+        <v>0.03908033555264358</v>
       </c>
       <c r="C4">
-        <v>0.6636629084637686</v>
+        <v>0.6775931608624315</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>7496</v>
@@ -528,13 +528,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>0.049611286365639</v>
+        <v>0.05368246916032315</v>
       </c>
       <c r="B5">
-        <v>0.006179281258835669</v>
+        <v>0.006879850065982713</v>
       </c>
       <c r="C5">
-        <v>0.9576369681910819</v>
+        <v>0.9520698151791893</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -543,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>7496</v>
@@ -554,13 +554,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>0.1117501855740377</v>
+        <v>0.1157852608633804</v>
       </c>
       <c r="B6">
-        <v>0.01848594306847972</v>
+        <v>0.02115609382713379</v>
       </c>
       <c r="C6">
-        <v>0.8720679495714191</v>
+        <v>0.8454128746083894</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>7496</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>0.1563713026412249</v>
+        <v>0.159484588708672</v>
       </c>
       <c r="B7">
-        <v>0.03628942049923017</v>
+        <v>0.03900046575122816</v>
       </c>
       <c r="C7">
-        <v>0.710218678345963</v>
+        <v>0.6791611719931794</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>7496</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>0.04453711901080524</v>
+        <v>0.04228875806113996</v>
       </c>
       <c r="B8">
-        <v>0.005848896375624601</v>
+        <v>0.005048433669636723</v>
       </c>
       <c r="C8">
-        <v>0.9586568069921306</v>
+        <v>0.964997625511453</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>7496</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>0.08540172503842544</v>
+        <v>0.08417827064634094</v>
       </c>
       <c r="B9">
-        <v>0.01296504400657715</v>
+        <v>0.01178089655025557</v>
       </c>
       <c r="C9">
-        <v>0.9061134155108892</v>
+        <v>0.9181231387604056</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>7496</v>
@@ -658,13 +658,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>0.1483344700019378</v>
+        <v>0.1535920584325133</v>
       </c>
       <c r="B10">
-        <v>0.03353096216674885</v>
+        <v>0.03747206986459398</v>
       </c>
       <c r="C10">
-        <v>0.7303344892142145</v>
+        <v>0.6945161862008284</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>7496</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>0.04371496949472529</v>
+        <v>0.04312684127144682</v>
       </c>
       <c r="B11">
-        <v>0.005776338283684536</v>
+        <v>0.005438709705315207</v>
       </c>
       <c r="C11">
-        <v>0.9599580544480232</v>
+        <v>0.9626114036438838</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>7496</v>
@@ -710,13 +710,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>0.1325167969419708</v>
+        <v>0.1321152342072724</v>
       </c>
       <c r="B12">
-        <v>0.02553839152914978</v>
+        <v>0.02545289672999195</v>
       </c>
       <c r="C12">
-        <v>0.8104705367346814</v>
+        <v>0.8137337192833017</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="F12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>7496</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>0.1209950458779478</v>
+        <v>0.1235622158680962</v>
       </c>
       <c r="B13">
-        <v>0.0248886134918979</v>
+        <v>0.02618339892313805</v>
       </c>
       <c r="C13">
-        <v>0.8176367590201977</v>
+        <v>0.8076787093694231</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13">
         <v>7496</v>
